--- a/src/main/resources/templates/excel/productList.xlsx
+++ b/src/main/resources/templates/excel/productList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chals/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chals/Source/wb-partner-server/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C83DF0BB-F0CE-8242-937C-4C98AE6AEA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30C873C-3CD0-F14F-ADB9-DEE8587E34CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="14980" windowWidth="28300" windowHeight="17440" xr2:uid="{46F75420-F5B2-8D48-85D8-0542E3B4EA91}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17180" xr2:uid="{46F75420-F5B2-8D48-85D8-0542E3B4EA91}"/>
   </bookViews>
   <sheets>
     <sheet name="상품" sheetId="1" r:id="rId1"/>
@@ -183,12 +183,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,7 +510,7 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -515,8 +518,8 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.5703125" customWidth="1"/>
   </cols>
